--- a/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5019274586801373</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1212970585845171</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8450101603501439</v>
+        <v>0.8537938966125866</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7025033880846343</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7166791631857585</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8581101134222324</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2407089079037021</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1894632860794662</v>
+        <v>0.2887343582939264</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2678191319527299</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.265654010538602</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2120748120339117</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2436398006654344</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1962330448910777</v>
+        <v>0.1853793896612587</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07616071401256003</v>
+        <v>-0.02887343582939264</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1513769906091383</v>
+        <v>0.05774687165878527</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.266477100325546</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.8672464782254536</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.008690788940074237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8537938966125866</v>
+        <v>0.02588392106004298</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.02830778395118155</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2541631022932542</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.6815519979417762</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.9332737585544828</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.9868334728432324</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2887343582939264</v>
+        <v>0.889797255317229</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.9834430645082018</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.07712036411779508</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.1452290650054753</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1853793896612587</v>
+        <v>0.2737440220311977</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.02887343582939264</v>
+        <v>0.04557449268268071</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05774687165878527</v>
+        <v>0.2577154394579453</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.266477100325546</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8672464782254536</v>
+        <v>0.08146573896365031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008690788940074237</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02588392106004298</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02830778395118155</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2541631022932542</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6815519979417762</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9332737585544828</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9868334728432324</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.889797255317229</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9834430645082018</v>
+        <v>0.3858518413943868</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07712036411779508</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1452290650054753</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2737440220311977</v>
+        <v>0.3244397216890951</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04557449268268071</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2577154394579453</v>
+        <v>0.2540732869481825</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,78 +555,69 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5019274586801373</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1212970585845171</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8450101603501439</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7025033880846343</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7166791631857585</v>
+        <v>91</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8581101134222324</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2407089079037021</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1894632860794662</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2678191319527299</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.265654010538602</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2120748120339117</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2436398006654344</v>
+        <v>-9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1962330448910777</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07616071401256003</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1513769906091383</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
